--- a/info_cov_S1_to_s20.xlsx
+++ b/info_cov_S1_to_s20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niko/sciebo/Postdoc TU Dortmund/general_samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD05DDC-7903-3045-B4DE-1EE94484EFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940AF53D-5811-4B4E-BAD0-8AC5A1D65D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{31C0AB96-8DF2-6E43-AF84-5199F8BD35AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>sample</t>
   </si>
@@ -116,6 +116,24 @@
   </si>
   <si>
     <t>s9</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>mixed_sample</t>
   </si>
 </sst>
 </file>
@@ -467,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5B8410-9958-0B4E-934A-20F5AF110F10}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,9 +497,10 @@
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,8 +522,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -526,8 +551,11 @@
       <c r="G2">
         <v>0.56700200000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -549,8 +577,11 @@
       <c r="G3">
         <v>1.0297400000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -572,8 +603,11 @@
       <c r="G4">
         <v>1.0342100000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -595,8 +629,11 @@
       <c r="G5">
         <v>1.03271</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -618,8 +655,11 @@
       <c r="G6">
         <v>0.56790399999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -641,8 +681,11 @@
       <c r="G7">
         <v>0.56975500000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -664,8 +707,11 @@
       <c r="G8">
         <v>1.03084</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -687,8 +733,11 @@
       <c r="G9">
         <v>0.56310400000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -710,8 +759,11 @@
       <c r="G10">
         <v>0.56873399999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -733,8 +785,11 @@
       <c r="G11">
         <v>1.0304599999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -756,8 +811,11 @@
       <c r="G12">
         <v>0.56678700000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -779,8 +837,14 @@
       <c r="G13">
         <v>0.78248300000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -802,8 +866,11 @@
       <c r="G14">
         <v>1.03742</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -825,8 +892,11 @@
       <c r="G15">
         <v>1.03257</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -848,8 +918,11 @@
       <c r="G16">
         <v>0.56748100000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -871,8 +944,11 @@
       <c r="G17">
         <v>0.56464499999999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -894,8 +970,11 @@
       <c r="G18">
         <v>0.56691000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -917,8 +996,11 @@
       <c r="G19">
         <v>1.0310699999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -940,8 +1022,11 @@
       <c r="G20">
         <v>1.0292600000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -962,6 +1047,9 @@
       </c>
       <c r="G21">
         <v>1.0343899999999999</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
